--- a/biology/Botanique/Jacobaea/Jacobaea.xlsx
+++ b/biology/Botanique/Jacobaea/Jacobaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacobaea est un genre de plantes à fleurs de la famille des Asteraceae (Composées). C'est l'un des genres de séneçons, notamment des séneçon de Jacob et séneçon cinéraire.
 La description de ce genre est très ancienne, puisqu'elle est due à Philip Miller en 1754 (réf. précise nécessaire car Miller semble plutôt décrire une Amaryllidaceae du nom de Jacobaea lily). Néanmoins, dès la fin du XIXe siècle jusqu'à la fin du XXe, ce genre n'était pas reconnu valide. Les espèces qui le composent étaient rangées dans le genre Senecio.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jacobaea abrotanifolia (L.) Moench - Séneçon à feuilles d'aurone
 Jacobaea adonidifolia (Loisel.) Pelser &amp; Veldkamp  - Séneçon à feuilles d'Adonis
@@ -584,9 +598,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (11 févr. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (11 févr. 2011) :
 Jacobaea abrotanifolia
 Jacobaea adonidifolia
 Jacobaea alpina
